--- a/data/pca/factorExposure/factorExposure_2011-05-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +741,60 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.006395345185026082</v>
+        <v>0.01317488165457135</v>
       </c>
       <c r="C2">
-        <v>0.00745900044950498</v>
+        <v>0.00447249622212312</v>
       </c>
       <c r="D2">
-        <v>0.04978241646120352</v>
+        <v>0.02782232096688095</v>
       </c>
       <c r="E2">
-        <v>2.032813085384678e-05</v>
+        <v>-0.01773271426262046</v>
       </c>
       <c r="F2">
-        <v>0.009863916532952273</v>
+        <v>0.001171137333387247</v>
       </c>
       <c r="G2">
-        <v>0.03374317459017809</v>
+        <v>-0.015989595812888</v>
       </c>
       <c r="H2">
-        <v>-0.01200209813252915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02421541631564401</v>
+      </c>
+      <c r="I2">
+        <v>-0.03613771422296292</v>
+      </c>
+      <c r="J2">
+        <v>-0.02392461023226851</v>
+      </c>
+      <c r="K2">
+        <v>0.03375527055609953</v>
+      </c>
+      <c r="L2">
+        <v>0.0239992676634137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +817,60 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.08726143661066835</v>
+        <v>0.1105599598372324</v>
       </c>
       <c r="C4">
-        <v>-0.0498652862104567</v>
+        <v>-0.07515439354272002</v>
       </c>
       <c r="D4">
-        <v>0.03056389841357023</v>
+        <v>0.02419745578683668</v>
       </c>
       <c r="E4">
-        <v>-0.03721151251814277</v>
+        <v>-0.01937107069502778</v>
       </c>
       <c r="F4">
-        <v>0.02628149999412221</v>
+        <v>0.155672788265712</v>
       </c>
       <c r="G4">
-        <v>0.02577726947985506</v>
+        <v>0.03296803243924284</v>
       </c>
       <c r="H4">
-        <v>0.01994509449336115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.01074895155860538</v>
+      </c>
+      <c r="I4">
+        <v>0.0134146323967192</v>
+      </c>
+      <c r="J4">
+        <v>0.02239151118259321</v>
+      </c>
+      <c r="K4">
+        <v>-0.09569437138562453</v>
+      </c>
+      <c r="L4">
+        <v>0.02304982453030919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +893,440 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1332556428457182</v>
+        <v>0.132960498157575</v>
       </c>
       <c r="C6">
-        <v>-0.03762112200006715</v>
+        <v>-0.05190500713440281</v>
       </c>
       <c r="D6">
-        <v>0.04985917693675184</v>
+        <v>0.001390840485127159</v>
       </c>
       <c r="E6">
-        <v>-0.05448691015984601</v>
+        <v>-0.006125925882787449</v>
       </c>
       <c r="F6">
-        <v>-0.110198006931751</v>
+        <v>-0.007897263918846398</v>
       </c>
       <c r="G6">
-        <v>-0.1171092767689842</v>
+        <v>0.09642999015061915</v>
       </c>
       <c r="H6">
-        <v>-0.03668611829396456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.0379015379715728</v>
+      </c>
+      <c r="I6">
+        <v>0.2484663210611735</v>
+      </c>
+      <c r="J6">
+        <v>0.3435432368698699</v>
+      </c>
+      <c r="K6">
+        <v>0.02368121556202021</v>
+      </c>
+      <c r="L6">
+        <v>0.213597392316271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.07878920583829042</v>
+        <v>0.07171899402783169</v>
       </c>
       <c r="C7">
-        <v>-0.04499258117249446</v>
+        <v>-0.06055892313687703</v>
       </c>
       <c r="D7">
-        <v>0.04084184663288868</v>
+        <v>0.02886090061583757</v>
       </c>
       <c r="E7">
-        <v>-0.04653045437312407</v>
+        <v>-0.01932769876452706</v>
       </c>
       <c r="F7">
-        <v>-0.03946358057317014</v>
+        <v>0.03726395615777939</v>
       </c>
       <c r="G7">
-        <v>-0.001250783367418716</v>
+        <v>0.01658923062775812</v>
       </c>
       <c r="H7">
-        <v>-0.02035060132420335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01901143233725467</v>
+      </c>
+      <c r="I7">
+        <v>0.001528581851905933</v>
+      </c>
+      <c r="J7">
+        <v>-0.05679898608219223</v>
+      </c>
+      <c r="K7">
+        <v>-0.1035258694352566</v>
+      </c>
+      <c r="L7">
+        <v>-0.03551268728946172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03696395970754775</v>
+        <v>0.04285761003597046</v>
       </c>
       <c r="C8">
-        <v>-0.002258603060491385</v>
+        <v>-0.02029815909376481</v>
       </c>
       <c r="D8">
-        <v>0.05366471109375723</v>
+        <v>0.005730386847254671</v>
       </c>
       <c r="E8">
-        <v>-0.05604667259897765</v>
+        <v>-0.01668817905110805</v>
       </c>
       <c r="F8">
-        <v>0.02595426531644593</v>
+        <v>0.1478946158128605</v>
       </c>
       <c r="G8">
-        <v>0.08449070386964749</v>
+        <v>0.01403265578403969</v>
       </c>
       <c r="H8">
-        <v>-0.08321632480421916</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.04824648083827895</v>
+      </c>
+      <c r="I8">
+        <v>0.06957338547409803</v>
+      </c>
+      <c r="J8">
+        <v>-0.001355780062640283</v>
+      </c>
+      <c r="K8">
+        <v>-0.07847282029798597</v>
+      </c>
+      <c r="L8">
+        <v>0.0547175991123442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.07925251451238849</v>
+        <v>0.08439553306811101</v>
       </c>
       <c r="C9">
-        <v>-0.04862183935453678</v>
+        <v>-0.06499830159792515</v>
       </c>
       <c r="D9">
-        <v>0.03307247055797243</v>
+        <v>0.02389083967230635</v>
       </c>
       <c r="E9">
-        <v>-0.02753300883911268</v>
+        <v>-0.001531781524138424</v>
       </c>
       <c r="F9">
-        <v>0.01300632491974006</v>
+        <v>0.1417978169349015</v>
       </c>
       <c r="G9">
-        <v>0.03376762811571065</v>
+        <v>0.03052785380360636</v>
       </c>
       <c r="H9">
-        <v>-0.02741712050692325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.01140526753981834</v>
+      </c>
+      <c r="I9">
+        <v>0.006622524097209114</v>
+      </c>
+      <c r="J9">
+        <v>-0.002794152407734167</v>
+      </c>
+      <c r="K9">
+        <v>-0.06214639692192329</v>
+      </c>
+      <c r="L9">
+        <v>0.02771513990608509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.04377407270376914</v>
+        <v>0.104270159273683</v>
       </c>
       <c r="C10">
-        <v>0.1379808213137765</v>
+        <v>0.1645283381583207</v>
       </c>
       <c r="D10">
-        <v>0.08226838944689717</v>
+        <v>0.05321524374045652</v>
       </c>
       <c r="E10">
-        <v>-0.02854952427399502</v>
+        <v>-0.03157090584936361</v>
       </c>
       <c r="F10">
-        <v>-0.04586582711441439</v>
+        <v>-0.007316681214421659</v>
       </c>
       <c r="G10">
-        <v>-0.01031649818537028</v>
+        <v>0.01138069091416576</v>
       </c>
       <c r="H10">
-        <v>-0.0008271817740974013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.03499578769967062</v>
+      </c>
+      <c r="I10">
+        <v>-0.003136991556458915</v>
+      </c>
+      <c r="J10">
+        <v>0.01929594374920236</v>
+      </c>
+      <c r="K10">
+        <v>0.01532689596218941</v>
+      </c>
+      <c r="L10">
+        <v>-0.05216658950586484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07053139169369611</v>
+        <v>0.07171802212184036</v>
       </c>
       <c r="C11">
-        <v>-0.06557833793780557</v>
+        <v>-0.07156252753110713</v>
       </c>
       <c r="D11">
-        <v>0.007132022510610205</v>
+        <v>0.007687234357091097</v>
       </c>
       <c r="E11">
-        <v>0.007027527899911675</v>
+        <v>0.02287257553850198</v>
       </c>
       <c r="F11">
-        <v>-0.004669374165596867</v>
+        <v>0.1327147445689154</v>
       </c>
       <c r="G11">
-        <v>0.1199441312448318</v>
+        <v>-0.004309951052737902</v>
       </c>
       <c r="H11">
-        <v>-0.06206808423317026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.05864168324769393</v>
+      </c>
+      <c r="I11">
+        <v>-0.03739661847256957</v>
+      </c>
+      <c r="J11">
+        <v>-0.08888922247727424</v>
+      </c>
+      <c r="K11">
+        <v>0.03819536639310309</v>
+      </c>
+      <c r="L11">
+        <v>0.01787076029255067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06441067212717494</v>
+        <v>0.06666736105809981</v>
       </c>
       <c r="C12">
-        <v>-0.03259598268072662</v>
+        <v>-0.06199511428692633</v>
       </c>
       <c r="D12">
-        <v>-0.006679027330010465</v>
+        <v>0.01601079601136601</v>
       </c>
       <c r="E12">
-        <v>-0.03718696404792335</v>
+        <v>0.02018318585609824</v>
       </c>
       <c r="F12">
-        <v>-0.01415423298896341</v>
+        <v>0.1378179160654915</v>
       </c>
       <c r="G12">
-        <v>0.1014793522599264</v>
+        <v>-0.01406496057658926</v>
       </c>
       <c r="H12">
-        <v>-0.08183509315971355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.06047930422406952</v>
+      </c>
+      <c r="I12">
+        <v>0.005907956777741915</v>
+      </c>
+      <c r="J12">
+        <v>-0.09144177470276844</v>
+      </c>
+      <c r="K12">
+        <v>0.01352556762620274</v>
+      </c>
+      <c r="L12">
+        <v>0.04461372160757488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.05353887709848099</v>
+        <v>0.04396949327116944</v>
       </c>
       <c r="C13">
-        <v>-0.003183803488481268</v>
+        <v>-0.03182794466237805</v>
       </c>
       <c r="D13">
-        <v>0.002094493736701226</v>
+        <v>0.01069579833241758</v>
       </c>
       <c r="E13">
-        <v>-0.0170976990780984</v>
+        <v>-0.02453693855587837</v>
       </c>
       <c r="F13">
-        <v>0.04696232297280137</v>
+        <v>0.04728196080326172</v>
       </c>
       <c r="G13">
-        <v>0.01104753348651273</v>
+        <v>0.005032273724338059</v>
       </c>
       <c r="H13">
-        <v>-0.07274707153706771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01792438946504621</v>
+      </c>
+      <c r="I13">
+        <v>0.01541409380575662</v>
+      </c>
+      <c r="J13">
+        <v>-0.009714409662368756</v>
+      </c>
+      <c r="K13">
+        <v>-0.04724972102873806</v>
+      </c>
+      <c r="L13">
+        <v>-0.01265621154292481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.05008262365307867</v>
+        <v>0.03661343310145988</v>
       </c>
       <c r="C14">
-        <v>-0.01222374464558952</v>
+        <v>-0.02151778265865093</v>
       </c>
       <c r="D14">
-        <v>0.01695611483539904</v>
+        <v>0.01056982277466907</v>
       </c>
       <c r="E14">
-        <v>-0.02735498299072074</v>
+        <v>0.01306442426357471</v>
       </c>
       <c r="F14">
-        <v>-0.00496833669712691</v>
+        <v>0.0642056000934064</v>
       </c>
       <c r="G14">
-        <v>0.003702125924769828</v>
+        <v>0.005107365902766343</v>
       </c>
       <c r="H14">
-        <v>-0.07100105602504959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.0288946712259146</v>
+      </c>
+      <c r="I14">
+        <v>0.0005288151298964071</v>
+      </c>
+      <c r="J14">
+        <v>0.02431769102666547</v>
+      </c>
+      <c r="K14">
+        <v>-0.1117897543622967</v>
+      </c>
+      <c r="L14">
+        <v>0.02787327306376814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.03766422371466607</v>
+        <v>0.0250301042938934</v>
       </c>
       <c r="C15">
-        <v>0.008188165942874139</v>
+        <v>-0.01398171585546291</v>
       </c>
       <c r="D15">
-        <v>0.00668984590707178</v>
+        <v>-0.005067172523751932</v>
       </c>
       <c r="E15">
-        <v>-0.01957532082571472</v>
+        <v>-0.05100708691863221</v>
       </c>
       <c r="F15">
-        <v>0.01647994517405316</v>
+        <v>0.003185056884660708</v>
       </c>
       <c r="G15">
-        <v>-0.003162458913815936</v>
+        <v>0.0331271273064198</v>
       </c>
       <c r="H15">
-        <v>-0.009421126270488871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.0008878247285412176</v>
+      </c>
+      <c r="I15">
+        <v>-0.01169589283068873</v>
+      </c>
+      <c r="J15">
+        <v>0.04337405816946296</v>
+      </c>
+      <c r="K15">
+        <v>-0.0688996828373829</v>
+      </c>
+      <c r="L15">
+        <v>-0.01663543365374938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.07058595094260289</v>
+        <v>0.07618545202013012</v>
       </c>
       <c r="C16">
-        <v>-0.07260328928014727</v>
+        <v>-0.07535095607646423</v>
       </c>
       <c r="D16">
-        <v>0.01665855678883354</v>
+        <v>0.004952266698120252</v>
       </c>
       <c r="E16">
-        <v>-0.02988012745092212</v>
+        <v>0.01727558352806141</v>
       </c>
       <c r="F16">
-        <v>0.02686148474897933</v>
+        <v>0.1271776426919928</v>
       </c>
       <c r="G16">
-        <v>0.08227794419960192</v>
+        <v>-0.01445021870817396</v>
       </c>
       <c r="H16">
-        <v>-0.06331411443679884</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.05297962022346047</v>
+      </c>
+      <c r="I16">
+        <v>-0.03073834713807825</v>
+      </c>
+      <c r="J16">
+        <v>-0.1038043943045929</v>
+      </c>
+      <c r="K16">
+        <v>0.007721335310550244</v>
+      </c>
+      <c r="L16">
+        <v>0.03628297858219319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1349,22 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1387,22 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1425,288 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.04913139224141013</v>
+        <v>0.0437173655935481</v>
       </c>
       <c r="C20">
-        <v>-0.03668546733570834</v>
+        <v>-0.03251642774217615</v>
       </c>
       <c r="D20">
-        <v>0.007924722236122773</v>
+        <v>0.01269002908181626</v>
       </c>
       <c r="E20">
-        <v>-0.01257518411868231</v>
+        <v>-0.02476310544007955</v>
       </c>
       <c r="F20">
-        <v>0.01051277812939224</v>
+        <v>0.06892503889747192</v>
       </c>
       <c r="G20">
-        <v>0.03225106994615027</v>
+        <v>-0.008318729090550923</v>
       </c>
       <c r="H20">
-        <v>-0.05087282746982393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.001026258180216405</v>
+      </c>
+      <c r="I20">
+        <v>0.02202081761181574</v>
+      </c>
+      <c r="J20">
+        <v>0.002336925775042896</v>
+      </c>
+      <c r="K20">
+        <v>-0.07272399652531866</v>
+      </c>
+      <c r="L20">
+        <v>0.007993498882274972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02646381513948603</v>
+        <v>0.02396877639369667</v>
       </c>
       <c r="C21">
-        <v>-0.03802207385182743</v>
+        <v>-0.02378673351803432</v>
       </c>
       <c r="D21">
-        <v>-0.001559412665776479</v>
+        <v>0.001780307962485947</v>
       </c>
       <c r="E21">
-        <v>-0.05159615359776148</v>
+        <v>-0.006036841545953069</v>
       </c>
       <c r="F21">
-        <v>-0.08320110920642476</v>
+        <v>0.06434320730241629</v>
       </c>
       <c r="G21">
-        <v>-0.0252379077336703</v>
+        <v>0.04906885642666182</v>
       </c>
       <c r="H21">
-        <v>0.08503087164793223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.09626523237744122</v>
+      </c>
+      <c r="I21">
+        <v>0.04061377809781746</v>
+      </c>
+      <c r="J21">
+        <v>0.04653832595334644</v>
+      </c>
+      <c r="K21">
+        <v>-0.1064298865148395</v>
+      </c>
+      <c r="L21">
+        <v>-0.08920097407627324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.02863274608284749</v>
+        <v>0.04664668130954314</v>
       </c>
       <c r="C22">
-        <v>-0.03985966509647057</v>
+        <v>-0.03117943824613242</v>
       </c>
       <c r="D22">
-        <v>-0.0430934591463514</v>
+        <v>-0.09814584308482498</v>
       </c>
       <c r="E22">
-        <v>-0.5253603500968496</v>
+        <v>-0.6506687361785481</v>
       </c>
       <c r="F22">
-        <v>0.2456875884765386</v>
+        <v>-0.05314273171444036</v>
       </c>
       <c r="G22">
-        <v>-0.1345620311937718</v>
+        <v>-0.1522340621589134</v>
       </c>
       <c r="H22">
-        <v>0.2816549191234792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.06651058008139384</v>
+      </c>
+      <c r="I22">
+        <v>0.01605024807750505</v>
+      </c>
+      <c r="J22">
+        <v>-0.02117514404662133</v>
+      </c>
+      <c r="K22">
+        <v>0.0411551054029588</v>
+      </c>
+      <c r="L22">
+        <v>-0.00454962824351485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.02847268710157634</v>
+        <v>0.04709876684541252</v>
       </c>
       <c r="C23">
-        <v>-0.03956091160848839</v>
+        <v>-0.0319002765390112</v>
       </c>
       <c r="D23">
-        <v>-0.04201915969103179</v>
+        <v>-0.09843659477073717</v>
       </c>
       <c r="E23">
-        <v>-0.5245613207201305</v>
+        <v>-0.652444956347634</v>
       </c>
       <c r="F23">
-        <v>0.2464441993003065</v>
+        <v>-0.05034802347166744</v>
       </c>
       <c r="G23">
-        <v>-0.1354943326926481</v>
+        <v>-0.1526501108988481</v>
       </c>
       <c r="H23">
-        <v>0.2808236324419721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.06353962723426369</v>
+      </c>
+      <c r="I23">
+        <v>0.01694062926586682</v>
+      </c>
+      <c r="J23">
+        <v>-0.01933771674776872</v>
+      </c>
+      <c r="K23">
+        <v>0.04327140886933965</v>
+      </c>
+      <c r="L23">
+        <v>-0.002212434401286721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.0791918436173954</v>
+        <v>0.0796533497072234</v>
       </c>
       <c r="C24">
-        <v>-0.0546322349579189</v>
+        <v>-0.06786285059829487</v>
       </c>
       <c r="D24">
-        <v>0.01448807200028257</v>
+        <v>0.01051862884192517</v>
       </c>
       <c r="E24">
-        <v>-0.03664319319815966</v>
+        <v>0.01202023651642611</v>
       </c>
       <c r="F24">
-        <v>0.004408577404136809</v>
+        <v>0.12541586579043</v>
       </c>
       <c r="G24">
-        <v>0.09028226944757164</v>
+        <v>-0.01697375969040319</v>
       </c>
       <c r="H24">
-        <v>-0.06169376383317916</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.06756268380237287</v>
+      </c>
+      <c r="I24">
+        <v>-0.04824703387581632</v>
+      </c>
+      <c r="J24">
+        <v>-0.09192687536206208</v>
+      </c>
+      <c r="K24">
+        <v>0.03853797887618335</v>
+      </c>
+      <c r="L24">
+        <v>0.04077547431791855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.06823127898478935</v>
+        <v>0.07594439720089791</v>
       </c>
       <c r="C25">
-        <v>-0.028292139745783</v>
+        <v>-0.05144100644704862</v>
       </c>
       <c r="D25">
-        <v>0.0157426285298961</v>
+        <v>0.01942915699551897</v>
       </c>
       <c r="E25">
-        <v>-0.02726492154888037</v>
+        <v>0.02560240930610622</v>
       </c>
       <c r="F25">
-        <v>-0.002127539909323833</v>
+        <v>0.1296752066787779</v>
       </c>
       <c r="G25">
-        <v>0.08810630110432112</v>
+        <v>-0.01270555000475555</v>
       </c>
       <c r="H25">
-        <v>-0.0649535049976044</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.05035814846749513</v>
+      </c>
+      <c r="I25">
+        <v>-0.02818817225858896</v>
+      </c>
+      <c r="J25">
+        <v>-0.090891265481335</v>
+      </c>
+      <c r="K25">
+        <v>0.02997015179732326</v>
+      </c>
+      <c r="L25">
+        <v>0.0534851008214457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.05383453259902374</v>
+        <v>0.04262201279051496</v>
       </c>
       <c r="C26">
-        <v>-0.03590764294524646</v>
+        <v>-0.01503805864076711</v>
       </c>
       <c r="D26">
-        <v>0.03084373198101107</v>
+        <v>0.0009678950218462915</v>
       </c>
       <c r="E26">
-        <v>-0.006549498584876999</v>
+        <v>-0.009540125719622337</v>
       </c>
       <c r="F26">
-        <v>0.01744350997784843</v>
+        <v>0.04788785761479289</v>
       </c>
       <c r="G26">
-        <v>-0.005065692035558771</v>
+        <v>-0.01660734832712153</v>
       </c>
       <c r="H26">
-        <v>-0.0499047388820456</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.01007043784171659</v>
+      </c>
+      <c r="I26">
+        <v>-0.008974951792515031</v>
+      </c>
+      <c r="J26">
+        <v>0.03872679489706974</v>
+      </c>
+      <c r="K26">
+        <v>-0.1126009934263913</v>
+      </c>
+      <c r="L26">
+        <v>-0.04927640240190299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1729,364 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.08510673174058958</v>
+        <v>0.1414976608539201</v>
       </c>
       <c r="C28">
-        <v>0.2913342568105546</v>
+        <v>0.2876956501155064</v>
       </c>
       <c r="D28">
-        <v>0.07367660395649475</v>
+        <v>-0.002916236129723794</v>
       </c>
       <c r="E28">
-        <v>-0.002673260015684432</v>
+        <v>0.00358152769959654</v>
       </c>
       <c r="F28">
-        <v>-0.04062813564431852</v>
+        <v>0.0137726312685396</v>
       </c>
       <c r="G28">
-        <v>-0.002039963873543657</v>
+        <v>0.007547633782029366</v>
       </c>
       <c r="H28">
-        <v>0.06012400423159196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01569633473231851</v>
+      </c>
+      <c r="I28">
+        <v>0.02275375977947314</v>
+      </c>
+      <c r="J28">
+        <v>-0.01587955745360001</v>
+      </c>
+      <c r="K28">
+        <v>-0.00426236768702209</v>
+      </c>
+      <c r="L28">
+        <v>-0.02129838465363065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05319345468675079</v>
+        <v>0.0374282125214971</v>
       </c>
       <c r="C29">
-        <v>-0.005974494580430294</v>
+        <v>-0.02140753982708965</v>
       </c>
       <c r="D29">
-        <v>0.007539117169785533</v>
+        <v>0.01983504272140472</v>
       </c>
       <c r="E29">
-        <v>-0.03559595706904191</v>
+        <v>0.002871011545808089</v>
       </c>
       <c r="F29">
-        <v>0.02386945405090159</v>
+        <v>0.06687357587606797</v>
       </c>
       <c r="G29">
-        <v>0.002500968120794199</v>
+        <v>-0.0193822052367789</v>
       </c>
       <c r="H29">
-        <v>-0.01509304936196107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.009946614948912417</v>
+      </c>
+      <c r="I29">
+        <v>0.00905254235557707</v>
+      </c>
+      <c r="J29">
+        <v>0.02579099135113571</v>
+      </c>
+      <c r="K29">
+        <v>-0.1052280705647555</v>
+      </c>
+      <c r="L29">
+        <v>0.01125564188028588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1168038513451386</v>
+        <v>0.1058884677437274</v>
       </c>
       <c r="C30">
-        <v>-0.02870394592481406</v>
+        <v>-0.05554399564699079</v>
       </c>
       <c r="D30">
-        <v>0.05306886096456316</v>
+        <v>-0.01885820680813273</v>
       </c>
       <c r="E30">
-        <v>-0.09384614596649141</v>
+        <v>0.007500114897657918</v>
       </c>
       <c r="F30">
-        <v>-0.05724748749001482</v>
+        <v>0.218585690252433</v>
       </c>
       <c r="G30">
-        <v>0.1808780003813683</v>
+        <v>-0.1323736947969098</v>
       </c>
       <c r="H30">
-        <v>-0.03076591039263067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1408821645589122</v>
+      </c>
+      <c r="I30">
+        <v>0.2034996523151573</v>
+      </c>
+      <c r="J30">
+        <v>-0.0409089528253525</v>
+      </c>
+      <c r="K30">
+        <v>-0.06103205136952315</v>
+      </c>
+      <c r="L30">
+        <v>0.1264368519090149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05028901846058518</v>
+        <v>0.0383528040963269</v>
       </c>
       <c r="C31">
-        <v>-0.01824411039271855</v>
+        <v>-0.04656190933298664</v>
       </c>
       <c r="D31">
-        <v>-0.01205135410575254</v>
+        <v>0.002935825217111784</v>
       </c>
       <c r="E31">
-        <v>-0.001472877543531181</v>
+        <v>-0.002811689396883024</v>
       </c>
       <c r="F31">
-        <v>0.02590854293492138</v>
+        <v>0.02595095948938678</v>
       </c>
       <c r="G31">
-        <v>-0.0280472593996003</v>
+        <v>-0.008530578683463264</v>
       </c>
       <c r="H31">
-        <v>-0.03635025899033296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03655770497760021</v>
+      </c>
+      <c r="I31">
+        <v>-0.02072167651751325</v>
+      </c>
+      <c r="J31">
+        <v>-0.00508420375513101</v>
+      </c>
+      <c r="K31">
+        <v>-0.03481878330582384</v>
+      </c>
+      <c r="L31">
+        <v>0.03071471391855424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.03147635240497465</v>
+        <v>0.04476959980500102</v>
       </c>
       <c r="C32">
-        <v>0.005328992918811135</v>
+        <v>-0.002475830331678185</v>
       </c>
       <c r="D32">
-        <v>0.002336483108957208</v>
+        <v>-0.03104209075756361</v>
       </c>
       <c r="E32">
-        <v>-0.0786650322829742</v>
+        <v>0.0258503439855194</v>
       </c>
       <c r="F32">
-        <v>0.09338798690808599</v>
+        <v>0.07453381513191085</v>
       </c>
       <c r="G32">
-        <v>0.04715436139321565</v>
+        <v>0.03046505592246715</v>
       </c>
       <c r="H32">
-        <v>-0.008670932535615164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.004422363544102708</v>
+      </c>
+      <c r="I32">
+        <v>-0.04338328884961638</v>
+      </c>
+      <c r="J32">
+        <v>-0.02679881612423099</v>
+      </c>
+      <c r="K32">
+        <v>-0.07336972793094879</v>
+      </c>
+      <c r="L32">
+        <v>0.01167160369219545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1167806359858947</v>
+        <v>0.0962067062532669</v>
       </c>
       <c r="C33">
-        <v>-0.0327009099413695</v>
+        <v>-0.05801775688855765</v>
       </c>
       <c r="D33">
-        <v>0.003522413309253116</v>
+        <v>0.003148010732305332</v>
       </c>
       <c r="E33">
-        <v>-0.01859494262690083</v>
+        <v>0.0198860691783998</v>
       </c>
       <c r="F33">
-        <v>0.06040996963291966</v>
+        <v>0.07890825665182692</v>
       </c>
       <c r="G33">
-        <v>0.03594322000132465</v>
+        <v>-0.004257358498445134</v>
       </c>
       <c r="H33">
-        <v>-0.05953814566740848</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.003029014649717206</v>
+      </c>
+      <c r="I33">
+        <v>-0.01294952218169546</v>
+      </c>
+      <c r="J33">
+        <v>0.004773579012212475</v>
+      </c>
+      <c r="K33">
+        <v>-0.03491281909900209</v>
+      </c>
+      <c r="L33">
+        <v>0.02407328780136186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.05560697807754459</v>
+        <v>0.0642709676419851</v>
       </c>
       <c r="C34">
-        <v>-0.05736815112956741</v>
+        <v>-0.05879902571368405</v>
       </c>
       <c r="D34">
-        <v>-0.0005079565272402678</v>
+        <v>0.008100742493280726</v>
       </c>
       <c r="E34">
-        <v>-0.01475003360373274</v>
+        <v>0.02155871587516998</v>
       </c>
       <c r="F34">
-        <v>0.004993591759056082</v>
+        <v>0.1154928865289295</v>
       </c>
       <c r="G34">
-        <v>0.06768716127036797</v>
+        <v>-0.005935395404077123</v>
       </c>
       <c r="H34">
-        <v>-0.04996242477964968</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.03624874656569525</v>
+      </c>
+      <c r="I34">
+        <v>-0.02696448885550542</v>
+      </c>
+      <c r="J34">
+        <v>-0.09072103044384625</v>
+      </c>
+      <c r="K34">
+        <v>-0.02174995664243385</v>
+      </c>
+      <c r="L34">
+        <v>0.02604579899916067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04391589629963725</v>
+        <v>0.02278572079695015</v>
       </c>
       <c r="C35">
-        <v>-0.02746196208012586</v>
+        <v>-0.02206105138057739</v>
       </c>
       <c r="D35">
-        <v>-0.007510598894752563</v>
+        <v>0.005784266724685708</v>
       </c>
       <c r="E35">
-        <v>-0.01384383577701865</v>
+        <v>0.002448541901581074</v>
       </c>
       <c r="F35">
-        <v>-0.02143205506295404</v>
+        <v>0.03532541128165691</v>
       </c>
       <c r="G35">
-        <v>0.0159665980027021</v>
+        <v>-0.01787791982878294</v>
       </c>
       <c r="H35">
-        <v>-0.06354571776322651</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.01917229820260234</v>
+      </c>
+      <c r="I35">
+        <v>0.01406962360689191</v>
+      </c>
+      <c r="J35">
+        <v>-0.04128766563559277</v>
+      </c>
+      <c r="K35">
+        <v>-0.07822583421993261</v>
+      </c>
+      <c r="L35">
+        <v>0.003404851943002345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03617671261248721</v>
+        <v>0.02724123763708476</v>
       </c>
       <c r="C36">
-        <v>-0.01277937384351045</v>
+        <v>-0.01393993864674615</v>
       </c>
       <c r="D36">
-        <v>0.01895917407073227</v>
+        <v>0.002175576032815154</v>
       </c>
       <c r="E36">
-        <v>-0.03308459873345362</v>
+        <v>-0.01435508152632174</v>
       </c>
       <c r="F36">
-        <v>0.01680246575973034</v>
+        <v>0.06674714940523101</v>
       </c>
       <c r="G36">
-        <v>0.01559688013336779</v>
+        <v>-0.01098707822526891</v>
       </c>
       <c r="H36">
-        <v>-0.06765740350365362</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.01034602110151425</v>
+      </c>
+      <c r="I36">
+        <v>0.005366143822158377</v>
+      </c>
+      <c r="J36">
+        <v>0.03092065337166523</v>
+      </c>
+      <c r="K36">
+        <v>-0.03943507107720875</v>
+      </c>
+      <c r="L36">
+        <v>0.0181771944485787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2109,174 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.05030115363891914</v>
+        <v>0.02729987486756838</v>
       </c>
       <c r="C38">
-        <v>-0.03387984980657837</v>
+        <v>-0.0421403976997624</v>
       </c>
       <c r="D38">
-        <v>0.001520611219508975</v>
+        <v>0.01261528862011208</v>
       </c>
       <c r="E38">
-        <v>-0.02597864322421183</v>
+        <v>-0.02195155121268568</v>
       </c>
       <c r="F38">
-        <v>0.02909979054758454</v>
+        <v>-0.0482598214019862</v>
       </c>
       <c r="G38">
-        <v>0.03711538952968355</v>
+        <v>-0.04138571737881367</v>
       </c>
       <c r="H38">
-        <v>0.02648288211867019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.01077904343004099</v>
+      </c>
+      <c r="I38">
+        <v>0.01386641836575737</v>
+      </c>
+      <c r="J38">
+        <v>-0.003229362495893796</v>
+      </c>
+      <c r="K38">
+        <v>-0.04898884826876979</v>
+      </c>
+      <c r="L38">
+        <v>-0.07070059894525309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.1035484357470347</v>
+        <v>0.1081036601389182</v>
       </c>
       <c r="C39">
-        <v>-0.06821862953929793</v>
+        <v>-0.08785791706999652</v>
       </c>
       <c r="D39">
-        <v>-0.003570425623824911</v>
+        <v>0.008316249467131834</v>
       </c>
       <c r="E39">
-        <v>-0.02534083537372223</v>
+        <v>0.08897235081735415</v>
       </c>
       <c r="F39">
-        <v>-0.002109452715350749</v>
+        <v>0.167368292741769</v>
       </c>
       <c r="G39">
-        <v>0.1255365002912722</v>
+        <v>-0.09689790482921447</v>
       </c>
       <c r="H39">
-        <v>-0.03070291148293637</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.06650382004531875</v>
+      </c>
+      <c r="I39">
+        <v>0.01522755063706061</v>
+      </c>
+      <c r="J39">
+        <v>-0.2099139283117012</v>
+      </c>
+      <c r="K39">
+        <v>0.06353737520243323</v>
+      </c>
+      <c r="L39">
+        <v>0.06656296581882658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.04589134091699914</v>
+        <v>0.03308979271923477</v>
       </c>
       <c r="C40">
-        <v>-0.02650554174095289</v>
+        <v>-0.0573457075903037</v>
       </c>
       <c r="D40">
-        <v>-0.04346824156548573</v>
+        <v>0.007156543041660256</v>
       </c>
       <c r="E40">
-        <v>-0.1082825685450788</v>
+        <v>-0.04628844301399028</v>
       </c>
       <c r="F40">
-        <v>0.02578905529617351</v>
+        <v>0.1066348335331762</v>
       </c>
       <c r="G40">
-        <v>0.1525543310773852</v>
+        <v>-0.003687179375249642</v>
       </c>
       <c r="H40">
-        <v>-0.129361783322915</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.08741160424152472</v>
+      </c>
+      <c r="I40">
+        <v>-0.01664724972480267</v>
+      </c>
+      <c r="J40">
+        <v>0.04789516950014074</v>
+      </c>
+      <c r="K40">
+        <v>-0.02547576447943479</v>
+      </c>
+      <c r="L40">
+        <v>-0.1115899617538406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.0461450503186066</v>
+        <v>0.03756126635995517</v>
       </c>
       <c r="C41">
-        <v>-0.03987520488811692</v>
+        <v>-0.03366509365630383</v>
       </c>
       <c r="D41">
-        <v>-0.0001319818382536969</v>
+        <v>0.018325266534543</v>
       </c>
       <c r="E41">
-        <v>0.006286916172249042</v>
+        <v>0.01469982572956001</v>
       </c>
       <c r="F41">
-        <v>0.01449541227879656</v>
+        <v>0.0186508375544232</v>
       </c>
       <c r="G41">
-        <v>0.03077970599251017</v>
+        <v>-0.01943386950866493</v>
       </c>
       <c r="H41">
-        <v>-0.01675448153796029</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.003820802953136104</v>
+      </c>
+      <c r="I41">
+        <v>-0.0008027134030056484</v>
+      </c>
+      <c r="J41">
+        <v>-0.02552043997371517</v>
+      </c>
+      <c r="K41">
+        <v>-0.05952186187565725</v>
+      </c>
+      <c r="L41">
+        <v>-0.01812265124682117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2299,98 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.06563746625642711</v>
+        <v>0.05051630414870677</v>
       </c>
       <c r="C43">
-        <v>-0.03519995033222616</v>
+        <v>-0.03689189632397106</v>
       </c>
       <c r="D43">
-        <v>0.02062217253365649</v>
+        <v>0.01255990899846139</v>
       </c>
       <c r="E43">
-        <v>-0.02824756502891381</v>
+        <v>-0.01356374869462024</v>
       </c>
       <c r="F43">
-        <v>0.01654926129373809</v>
+        <v>0.01302560794394799</v>
       </c>
       <c r="G43">
-        <v>0.005106215131990872</v>
+        <v>-0.03854847119778271</v>
       </c>
       <c r="H43">
-        <v>0.009921439771731242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.02151713857222187</v>
+      </c>
+      <c r="I43">
+        <v>0.02667417005741152</v>
+      </c>
+      <c r="J43">
+        <v>-0.05028265052597116</v>
+      </c>
+      <c r="K43">
+        <v>-0.04843858243971584</v>
+      </c>
+      <c r="L43">
+        <v>0.01132378978365874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.05341837896747477</v>
+        <v>0.08743149102511247</v>
       </c>
       <c r="C44">
-        <v>-0.01935066294539985</v>
+        <v>-0.06573571584393602</v>
       </c>
       <c r="D44">
-        <v>0.08316177387383999</v>
+        <v>0.02900536314048667</v>
       </c>
       <c r="E44">
-        <v>-0.06809376038190863</v>
+        <v>-0.08956049965777393</v>
       </c>
       <c r="F44">
-        <v>-0.003750470801406454</v>
+        <v>0.1732272384972378</v>
       </c>
       <c r="G44">
-        <v>0.1112083546589165</v>
+        <v>0.001822437804582371</v>
       </c>
       <c r="H44">
-        <v>-0.0453898230072383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.04962208885264093</v>
+      </c>
+      <c r="I44">
+        <v>-0.0310108199102121</v>
+      </c>
+      <c r="J44">
+        <v>-0.01698968442279737</v>
+      </c>
+      <c r="K44">
+        <v>-0.04743950432113233</v>
+      </c>
+      <c r="L44">
+        <v>-0.05634373111839613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2413,440 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.04553739503791054</v>
+        <v>0.03012808700740403</v>
       </c>
       <c r="C46">
-        <v>-0.04579626452613476</v>
+        <v>-0.02488353910419535</v>
       </c>
       <c r="D46">
-        <v>0.01524347264112521</v>
+        <v>0.02302156545345985</v>
       </c>
       <c r="E46">
-        <v>-0.05680747843133375</v>
+        <v>-0.03867962382509842</v>
       </c>
       <c r="F46">
-        <v>0.02092011490070177</v>
+        <v>0.03869105883363241</v>
       </c>
       <c r="G46">
-        <v>0.01471081044200075</v>
+        <v>-0.02061750026731634</v>
       </c>
       <c r="H46">
-        <v>-0.0269150402624605</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.03749836396236175</v>
+      </c>
+      <c r="I46">
+        <v>-0.03637447787685345</v>
+      </c>
+      <c r="J46">
+        <v>0.01847400046535285</v>
+      </c>
+      <c r="K46">
+        <v>-0.1337062807188301</v>
+      </c>
+      <c r="L46">
+        <v>0.0410755062073811</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04321328961075566</v>
+        <v>0.04232985155872068</v>
       </c>
       <c r="C47">
-        <v>-0.0178174325441696</v>
+        <v>-0.0264761489382894</v>
       </c>
       <c r="D47">
-        <v>0.003243489175848515</v>
+        <v>0.006030883305109076</v>
       </c>
       <c r="E47">
-        <v>-0.06911384411507124</v>
+        <v>-0.02046099239128974</v>
       </c>
       <c r="F47">
-        <v>0.01888214808702714</v>
+        <v>0.03624364758233661</v>
       </c>
       <c r="G47">
-        <v>-0.01595849201349371</v>
+        <v>0.001995842910308727</v>
       </c>
       <c r="H47">
-        <v>-0.02279569791514266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.01481082472138263</v>
+      </c>
+      <c r="I47">
+        <v>0.02292232829542655</v>
+      </c>
+      <c r="J47">
+        <v>0.02292064461620428</v>
+      </c>
+      <c r="K47">
+        <v>-0.05145265739458417</v>
+      </c>
+      <c r="L47">
+        <v>-0.01493481137303427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04148230398847996</v>
+        <v>0.04212052843636836</v>
       </c>
       <c r="C48">
-        <v>-0.0163688416453597</v>
+        <v>-0.01871894441770747</v>
       </c>
       <c r="D48">
-        <v>-0.005082545406555346</v>
+        <v>0.008099182328538727</v>
       </c>
       <c r="E48">
-        <v>-0.0555969157003689</v>
+        <v>-0.01193613819060943</v>
       </c>
       <c r="F48">
-        <v>0.03329134776593039</v>
+        <v>0.06902435666253602</v>
       </c>
       <c r="G48">
-        <v>-0.0005680942503695156</v>
+        <v>0.009570455005458044</v>
       </c>
       <c r="H48">
-        <v>-0.05117605401239092</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.0399282295220424</v>
+      </c>
+      <c r="I48">
+        <v>0.005111735681938395</v>
+      </c>
+      <c r="J48">
+        <v>0.009384684967214825</v>
+      </c>
+      <c r="K48">
+        <v>-0.0512826780858379</v>
+      </c>
+      <c r="L48">
+        <v>0.03408342097575465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.2308781578482435</v>
+        <v>0.2235479641042389</v>
       </c>
       <c r="C49">
-        <v>-0.1153634032245657</v>
+        <v>-0.06730570193954945</v>
       </c>
       <c r="D49">
-        <v>0.03844472794611398</v>
+        <v>0.08556493585072458</v>
       </c>
       <c r="E49">
-        <v>0.03082125022773328</v>
+        <v>0.03588833194365074</v>
       </c>
       <c r="F49">
-        <v>-0.1713509557444802</v>
+        <v>-0.2317293310391292</v>
       </c>
       <c r="G49">
-        <v>-0.007526689338672708</v>
+        <v>0.06041853537618577</v>
       </c>
       <c r="H49">
-        <v>0.1569367176637166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.2095752051649258</v>
+      </c>
+      <c r="I49">
+        <v>-0.02621482472624708</v>
+      </c>
+      <c r="J49">
+        <v>-0.08647549833268385</v>
+      </c>
+      <c r="K49">
+        <v>0.1652393608533823</v>
+      </c>
+      <c r="L49">
+        <v>0.01825345445838979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.05615420552333624</v>
+        <v>0.04546944693416622</v>
       </c>
       <c r="C50">
-        <v>-0.02481199782294927</v>
+        <v>-0.0329396392136861</v>
       </c>
       <c r="D50">
-        <v>-0.007334132867529914</v>
+        <v>0.001300108064953764</v>
       </c>
       <c r="E50">
-        <v>-0.02272646306414006</v>
+        <v>0.0008671132429258155</v>
       </c>
       <c r="F50">
-        <v>0.0577616121109089</v>
+        <v>0.04542544960627544</v>
       </c>
       <c r="G50">
-        <v>-0.03289803997942757</v>
+        <v>-0.03107911280685793</v>
       </c>
       <c r="H50">
-        <v>-0.04151254191623562</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02829996396853992</v>
+      </c>
+      <c r="I50">
+        <v>-0.01111667932931395</v>
+      </c>
+      <c r="J50">
+        <v>0.0188385736788774</v>
+      </c>
+      <c r="K50">
+        <v>-0.05045424073777072</v>
+      </c>
+      <c r="L50">
+        <v>0.0362801634266043</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.02695082196130487</v>
+        <v>0.02450470033935043</v>
       </c>
       <c r="C51">
-        <v>-0.01534573525769152</v>
+        <v>-0.002644261738291742</v>
       </c>
       <c r="D51">
-        <v>0.004801620897747901</v>
+        <v>0.01590771145276274</v>
       </c>
       <c r="E51">
-        <v>0.006606495507878701</v>
+        <v>-0.003054230558535939</v>
       </c>
       <c r="F51">
-        <v>-0.002998565947648428</v>
+        <v>-0.02270370698875154</v>
       </c>
       <c r="G51">
-        <v>0.008477240105874898</v>
+        <v>0.00814310684636175</v>
       </c>
       <c r="H51">
-        <v>0.03182152244119446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.00760787393071373</v>
+      </c>
+      <c r="I51">
+        <v>0.012668680836176</v>
+      </c>
+      <c r="J51">
+        <v>-0.06124639064428399</v>
+      </c>
+      <c r="K51">
+        <v>0.03401592808813131</v>
+      </c>
+      <c r="L51">
+        <v>0.02350369847832295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.04763331046315368</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.02515365630617917</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.004805387687345336</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01081652248974578</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.03009020479639729</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.06501523952002976</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.02939625252854147</v>
+      </c>
+      <c r="I52">
+        <v>-0.03897628979595165</v>
+      </c>
+      <c r="J52">
+        <v>0.04399443945551929</v>
+      </c>
+      <c r="K52">
+        <v>0.0405281644813121</v>
+      </c>
+      <c r="L52">
+        <v>0.004751490901399991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1694153953172594</v>
+        <v>0.1628420790910678</v>
       </c>
       <c r="C53">
-        <v>0.00260308603986149</v>
+        <v>-0.04616246402024955</v>
       </c>
       <c r="D53">
-        <v>0.02384491925822125</v>
+        <v>0.0234757671604008</v>
       </c>
       <c r="E53">
-        <v>0.1125616265139396</v>
+        <v>0.007704593651451118</v>
       </c>
       <c r="F53">
-        <v>0.2161357939184946</v>
+        <v>-0.05983042279807875</v>
       </c>
       <c r="G53">
-        <v>-0.008579575665198855</v>
+        <v>-0.1558859286744377</v>
       </c>
       <c r="H53">
-        <v>-0.07725818367257355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.2074467079486527</v>
+      </c>
+      <c r="I53">
+        <v>-0.140605999168416</v>
+      </c>
+      <c r="J53">
+        <v>0.0878538738641242</v>
+      </c>
+      <c r="K53">
+        <v>0.02392193426203442</v>
+      </c>
+      <c r="L53">
+        <v>0.01389175571522238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.04970409477985549</v>
+        <v>0.05521147662384102</v>
       </c>
       <c r="C54">
-        <v>-0.01513771839808407</v>
+        <v>-0.0440039075763979</v>
       </c>
       <c r="D54">
-        <v>0.02380868640191318</v>
+        <v>0.01233884780355125</v>
       </c>
       <c r="E54">
-        <v>-0.05450420995688465</v>
+        <v>-0.01807604749451544</v>
       </c>
       <c r="F54">
-        <v>0.02931716878248091</v>
+        <v>0.1275162246699629</v>
       </c>
       <c r="G54">
-        <v>0.03887845580847592</v>
+        <v>0.04589086552864682</v>
       </c>
       <c r="H54">
-        <v>-0.06795342498026838</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.02208358202650255</v>
+      </c>
+      <c r="I54">
+        <v>0.02202237342389024</v>
+      </c>
+      <c r="J54">
+        <v>0.05474539993889595</v>
+      </c>
+      <c r="K54">
+        <v>-0.1468139631858446</v>
+      </c>
+      <c r="L54">
+        <v>-0.01319073717606573</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.0938391883256053</v>
+        <v>0.08838516581595192</v>
       </c>
       <c r="C55">
-        <v>-0.00289433307030749</v>
+        <v>-0.03962910147884816</v>
       </c>
       <c r="D55">
-        <v>0.02117751083968716</v>
+        <v>0.02095171848062467</v>
       </c>
       <c r="E55">
-        <v>0.038776800044401</v>
+        <v>0.02283943321731464</v>
       </c>
       <c r="F55">
-        <v>0.1755009437133603</v>
+        <v>0.009320358455363708</v>
       </c>
       <c r="G55">
-        <v>-0.012352535929703</v>
+        <v>-0.0759229714991675</v>
       </c>
       <c r="H55">
-        <v>-0.1016431461593757</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1286735458537314</v>
+      </c>
+      <c r="I55">
+        <v>-0.094698379214445</v>
+      </c>
+      <c r="J55">
+        <v>0.03464300984849434</v>
+      </c>
+      <c r="K55">
+        <v>-0.006206752294272336</v>
+      </c>
+      <c r="L55">
+        <v>0.006396855722859651</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1664134738318092</v>
+        <v>0.153719897383283</v>
       </c>
       <c r="C56">
-        <v>-0.00277534566802105</v>
+        <v>-0.06209274515936874</v>
       </c>
       <c r="D56">
-        <v>0.02167058763958927</v>
+        <v>0.04639037715656286</v>
       </c>
       <c r="E56">
-        <v>0.1006446395155133</v>
+        <v>0.02345773093313884</v>
       </c>
       <c r="F56">
-        <v>0.2279037041457873</v>
+        <v>-0.0327078262940879</v>
       </c>
       <c r="G56">
-        <v>-0.0444957678899408</v>
+        <v>-0.1436932348610555</v>
       </c>
       <c r="H56">
-        <v>-0.07565857385043975</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1800734075203086</v>
+      </c>
+      <c r="I56">
+        <v>-0.1391183275800945</v>
+      </c>
+      <c r="J56">
+        <v>0.06156749542422318</v>
+      </c>
+      <c r="K56">
+        <v>0.02514248194074037</v>
+      </c>
+      <c r="L56">
+        <v>-0.01711168366448318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2869,1694 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.02711565246679051</v>
+        <v>0.04242979387063069</v>
       </c>
       <c r="C58">
-        <v>-0.04257587022525704</v>
+        <v>-0.03801943418942672</v>
       </c>
       <c r="D58">
-        <v>-0.02642259414510403</v>
+        <v>-0.01535932532655819</v>
       </c>
       <c r="E58">
-        <v>-0.4014532195233557</v>
+        <v>-0.08348115873582714</v>
       </c>
       <c r="F58">
-        <v>-0.3363713564942725</v>
+        <v>0.03140382415828093</v>
       </c>
       <c r="G58">
-        <v>-0.1944406692302313</v>
+        <v>-0.02688212964343456</v>
       </c>
       <c r="H58">
-        <v>-0.5793563639403715</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1432361728590621</v>
+      </c>
+      <c r="I58">
+        <v>0.1260462736806152</v>
+      </c>
+      <c r="J58">
+        <v>-0.1855250190532715</v>
+      </c>
+      <c r="K58">
+        <v>-0.1100710894037662</v>
+      </c>
+      <c r="L58">
+        <v>0.347084678351915</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1863291068238273</v>
+        <v>0.2161144532525092</v>
       </c>
       <c r="C59">
-        <v>0.4045446453853731</v>
+        <v>0.3009966120888818</v>
       </c>
       <c r="D59">
-        <v>0.09173690445058036</v>
+        <v>0.02344041429601451</v>
       </c>
       <c r="E59">
-        <v>0.01081029587851655</v>
+        <v>0.03722041388679134</v>
       </c>
       <c r="F59">
-        <v>0.0272453305927022</v>
+        <v>0.01729095445598413</v>
       </c>
       <c r="G59">
-        <v>0.06301579847970958</v>
+        <v>0.02160182706119497</v>
       </c>
       <c r="H59">
-        <v>0.01510655110227028</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.113594802360278</v>
+      </c>
+      <c r="I59">
+        <v>-0.04546646235123293</v>
+      </c>
+      <c r="J59">
+        <v>-0.04532370080744694</v>
+      </c>
+      <c r="K59">
+        <v>0.08377064503279198</v>
+      </c>
+      <c r="L59">
+        <v>-0.06945020501563151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2627685894447507</v>
+        <v>0.2388767774748613</v>
       </c>
       <c r="C60">
-        <v>-0.0522579127438214</v>
+        <v>-0.1097549667271555</v>
       </c>
       <c r="D60">
-        <v>0.07666969737784428</v>
+        <v>0.1043534981642757</v>
       </c>
       <c r="E60">
-        <v>0.02054747283259197</v>
+        <v>0.04208975218946979</v>
       </c>
       <c r="F60">
-        <v>-0.05570223490378518</v>
+        <v>-0.1400248501474786</v>
       </c>
       <c r="G60">
-        <v>-0.06758712507529618</v>
+        <v>0.008879100883618157</v>
       </c>
       <c r="H60">
-        <v>0.1690563227904822</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.05712721966738446</v>
+      </c>
+      <c r="I60">
+        <v>0.04757366923041589</v>
+      </c>
+      <c r="J60">
+        <v>0.1141817474988073</v>
+      </c>
+      <c r="K60">
+        <v>0.2291351390827417</v>
+      </c>
+      <c r="L60">
+        <v>0.09294617027657397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.09012778143215837</v>
+        <v>0.1030392470534093</v>
       </c>
       <c r="C61">
-        <v>-0.03891371072080824</v>
+        <v>-0.05777732680055433</v>
       </c>
       <c r="D61">
-        <v>0.007049366404013391</v>
+        <v>0.02602309334724623</v>
       </c>
       <c r="E61">
-        <v>0.005362752791716087</v>
+        <v>0.04482254187678534</v>
       </c>
       <c r="F61">
-        <v>0.007975300594575976</v>
+        <v>0.1403728437644558</v>
       </c>
       <c r="G61">
-        <v>0.04988996486054999</v>
+        <v>-0.07472085821018874</v>
       </c>
       <c r="H61">
-        <v>-0.002738901735321273</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.006362778496691771</v>
+      </c>
+      <c r="I61">
+        <v>-0.01466536318821933</v>
+      </c>
+      <c r="J61">
+        <v>-0.1171541273787959</v>
+      </c>
+      <c r="K61">
+        <v>-0.02144912734352996</v>
+      </c>
+      <c r="L61">
+        <v>0.02618612688826267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1518295884531667</v>
+        <v>0.1455762507157252</v>
       </c>
       <c r="C62">
-        <v>-0.01696477698785454</v>
+        <v>-0.06163306142855569</v>
       </c>
       <c r="D62">
-        <v>-0.01962410245343032</v>
+        <v>0.01748747626374577</v>
       </c>
       <c r="E62">
-        <v>0.1688741644815052</v>
+        <v>0.03237034379058005</v>
       </c>
       <c r="F62">
-        <v>0.2089521551817407</v>
+        <v>-0.04984997213913769</v>
       </c>
       <c r="G62">
-        <v>0.02349971651774752</v>
+        <v>-0.1137980906578838</v>
       </c>
       <c r="H62">
-        <v>-0.07348819623004196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1538745995658294</v>
+      </c>
+      <c r="I62">
+        <v>-0.1667761773764639</v>
+      </c>
+      <c r="J62">
+        <v>0.1162734975606462</v>
+      </c>
+      <c r="K62">
+        <v>-0.008653182736186232</v>
+      </c>
+      <c r="L62">
+        <v>-0.03353843147772934</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.03988341328892223</v>
+        <v>0.0441488149674725</v>
       </c>
       <c r="C63">
-        <v>-0.0260343868258497</v>
+        <v>-0.02671890558412203</v>
       </c>
       <c r="D63">
-        <v>-0.006285268227244079</v>
+        <v>-0.01494861009276924</v>
       </c>
       <c r="E63">
-        <v>-0.005536051681233893</v>
+        <v>0.008682663857958611</v>
       </c>
       <c r="F63">
-        <v>0.01747504024377922</v>
+        <v>0.06852873476473854</v>
       </c>
       <c r="G63">
-        <v>0.005020323900270635</v>
+        <v>0.002584690917898372</v>
       </c>
       <c r="H63">
-        <v>-0.05272222330938376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.009147747603966146</v>
+      </c>
+      <c r="I63">
+        <v>0.00503878848311465</v>
+      </c>
+      <c r="J63">
+        <v>-0.004770476186558998</v>
+      </c>
+      <c r="K63">
+        <v>-0.04327031321647268</v>
+      </c>
+      <c r="L63">
+        <v>0.03674644082531117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1050923878153616</v>
+        <v>0.09695014479247495</v>
       </c>
       <c r="C64">
-        <v>-0.02374800031378394</v>
+        <v>-0.04583276272929208</v>
       </c>
       <c r="D64">
-        <v>0.03922875320713567</v>
+        <v>0.0504624813955136</v>
       </c>
       <c r="E64">
-        <v>-0.03423046139493264</v>
+        <v>-0.01594649367599533</v>
       </c>
       <c r="F64">
-        <v>-0.02347771465659631</v>
+        <v>0.07647812139548356</v>
       </c>
       <c r="G64">
-        <v>0.07322358731344543</v>
+        <v>-0.02099077967113243</v>
       </c>
       <c r="H64">
-        <v>0.03697605405197465</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.06703198875619919</v>
+      </c>
+      <c r="I64">
+        <v>0.05826722697356457</v>
+      </c>
+      <c r="J64">
+        <v>-0.01593891056102153</v>
+      </c>
+      <c r="K64">
+        <v>0.01047786330053931</v>
+      </c>
+      <c r="L64">
+        <v>-0.007576423513124994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1269433576307533</v>
+        <v>0.1239029604434624</v>
       </c>
       <c r="C65">
-        <v>-0.04097991217522144</v>
+        <v>-0.04896582852423969</v>
       </c>
       <c r="D65">
-        <v>0.03120268668425203</v>
+        <v>-0.0152291657667696</v>
       </c>
       <c r="E65">
-        <v>-0.08638957724201708</v>
+        <v>0.01327832405940839</v>
       </c>
       <c r="F65">
-        <v>-0.1529944152415335</v>
+        <v>-0.0227679628937408</v>
       </c>
       <c r="G65">
-        <v>-0.2664980385067467</v>
+        <v>0.0778929548467366</v>
       </c>
       <c r="H65">
-        <v>-0.2328037079126105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.003902779513569334</v>
+      </c>
+      <c r="I65">
+        <v>0.3133209901997074</v>
+      </c>
+      <c r="J65">
+        <v>0.5164847231192915</v>
+      </c>
+      <c r="K65">
+        <v>0.04347755321231457</v>
+      </c>
+      <c r="L65">
+        <v>0.385854554529058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1640752638684077</v>
+        <v>0.1370797890462023</v>
       </c>
       <c r="C66">
-        <v>-0.08463699416723525</v>
+        <v>-0.1175627573705654</v>
       </c>
       <c r="D66">
-        <v>-0.01053807710671799</v>
+        <v>0.01235305743782568</v>
       </c>
       <c r="E66">
-        <v>0.01432866870011014</v>
+        <v>0.1049756243646202</v>
       </c>
       <c r="F66">
-        <v>0.006487084181688244</v>
+        <v>0.166415467072686</v>
       </c>
       <c r="G66">
-        <v>0.2483592884154486</v>
+        <v>-0.1280844873807617</v>
       </c>
       <c r="H66">
-        <v>-0.05634613974511293</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.08812343837850299</v>
+      </c>
+      <c r="I66">
+        <v>-0.03361333313927592</v>
+      </c>
+      <c r="J66">
+        <v>-0.2061188450282328</v>
+      </c>
+      <c r="K66">
+        <v>0.1263099345274719</v>
+      </c>
+      <c r="L66">
+        <v>0.0373120919770315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.09692871602166094</v>
+        <v>0.07494583167607245</v>
       </c>
       <c r="C67">
-        <v>-0.05159459095863066</v>
+        <v>-0.05303337852244013</v>
       </c>
       <c r="D67">
-        <v>0.02188622176952964</v>
+        <v>0.01136177766035811</v>
       </c>
       <c r="E67">
-        <v>-0.005747330087514472</v>
+        <v>-0.02524613539524853</v>
       </c>
       <c r="F67">
-        <v>0.02436155352677465</v>
+        <v>-0.03841997687505192</v>
       </c>
       <c r="G67">
-        <v>0.03614366762505741</v>
+        <v>-0.03762962723890867</v>
       </c>
       <c r="H67">
-        <v>0.04790988091067194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.03558374639627493</v>
+      </c>
+      <c r="I67">
+        <v>0.03708459978975597</v>
+      </c>
+      <c r="J67">
+        <v>-0.04431747099572569</v>
+      </c>
+      <c r="K67">
+        <v>0.01362827639485229</v>
+      </c>
+      <c r="L67">
+        <v>-0.1002431962118316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.06463377848637361</v>
+        <v>0.1178071603119912</v>
       </c>
       <c r="C68">
-        <v>0.2921245694801798</v>
+        <v>0.271495075099367</v>
       </c>
       <c r="D68">
-        <v>0.03371704932596882</v>
+        <v>-0.02087913210444417</v>
       </c>
       <c r="E68">
-        <v>-0.02357830031340907</v>
+        <v>0.009264363845046813</v>
       </c>
       <c r="F68">
-        <v>0.02261251142788374</v>
+        <v>0.04114457197132033</v>
       </c>
       <c r="G68">
-        <v>-0.03402834236210164</v>
+        <v>-0.004047617186160199</v>
       </c>
       <c r="H68">
-        <v>-0.03772156790199935</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.01690394937863563</v>
+      </c>
+      <c r="I68">
+        <v>0.01774440748677167</v>
+      </c>
+      <c r="J68">
+        <v>0.03065419425593391</v>
+      </c>
+      <c r="K68">
+        <v>-0.01604318662806278</v>
+      </c>
+      <c r="L68">
+        <v>0.04896166093501541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.04145935789814219</v>
+        <v>0.03978554774665781</v>
       </c>
       <c r="C69">
-        <v>-0.0225755609079715</v>
+        <v>-0.006419289328739808</v>
       </c>
       <c r="D69">
-        <v>0.005801453259290859</v>
+        <v>0.01039147245869705</v>
       </c>
       <c r="E69">
-        <v>-0.01159709528294541</v>
+        <v>-0.005218088991328842</v>
       </c>
       <c r="F69">
-        <v>0.02250905460052703</v>
+        <v>0.01827244038418559</v>
       </c>
       <c r="G69">
-        <v>0.02987205393464522</v>
+        <v>-0.03513676357293989</v>
       </c>
       <c r="H69">
-        <v>-0.01993733540032802</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.02227201037162447</v>
+      </c>
+      <c r="I69">
+        <v>0.0173375036538786</v>
+      </c>
+      <c r="J69">
+        <v>-0.000432730891857578</v>
+      </c>
+      <c r="K69">
+        <v>-0.02545900348742772</v>
+      </c>
+      <c r="L69">
+        <v>-0.003660333028898753</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.07073008307993456</v>
+        <v>0.05078892323904424</v>
       </c>
       <c r="C70">
-        <v>-0.01443676140925955</v>
+        <v>-0.01767651807275934</v>
       </c>
       <c r="D70">
-        <v>0.0354087364608801</v>
+        <v>0.03480071230095369</v>
       </c>
       <c r="E70">
-        <v>-0.001054679153917688</v>
+        <v>0.0236045868646693</v>
       </c>
       <c r="F70">
-        <v>-0.08866278876462014</v>
+        <v>0.02069142979428098</v>
       </c>
       <c r="G70">
-        <v>-0.04212790007810709</v>
+        <v>0.02795603886785732</v>
       </c>
       <c r="H70">
-        <v>0.06933174507595416</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.01881523896787169</v>
+      </c>
+      <c r="I70">
+        <v>0.1114288699613263</v>
+      </c>
+      <c r="J70">
+        <v>0.06798107611270629</v>
+      </c>
+      <c r="K70">
+        <v>-0.3026063159581825</v>
+      </c>
+      <c r="L70">
+        <v>-0.1787010658167943</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.07366760888312923</v>
+        <v>0.1321473973353751</v>
       </c>
       <c r="C71">
-        <v>0.2880448354894976</v>
+        <v>0.2832367853148323</v>
       </c>
       <c r="D71">
-        <v>0.06230393670178175</v>
+        <v>0.009237160587365276</v>
       </c>
       <c r="E71">
-        <v>-0.009026493684329754</v>
+        <v>0.0009135948066437978</v>
       </c>
       <c r="F71">
-        <v>-0.006619613522795826</v>
+        <v>0.04828442525182868</v>
       </c>
       <c r="G71">
-        <v>-0.01621704007857693</v>
+        <v>-0.03682923055796815</v>
       </c>
       <c r="H71">
-        <v>-0.01587421013268723</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.008741626160910711</v>
+      </c>
+      <c r="I71">
+        <v>0.02441352630325713</v>
+      </c>
+      <c r="J71">
+        <v>-0.001253421808339225</v>
+      </c>
+      <c r="K71">
+        <v>0.006187781742994923</v>
+      </c>
+      <c r="L71">
+        <v>0.03204116841297917</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1671229762126037</v>
+        <v>0.1499060433198716</v>
       </c>
       <c r="C72">
-        <v>0.01625625422307104</v>
+        <v>-0.02997392190348527</v>
       </c>
       <c r="D72">
-        <v>-0.2347523385033309</v>
+        <v>-0.09319684996134492</v>
       </c>
       <c r="E72">
-        <v>0.02934701957114865</v>
+        <v>0.02835685753954714</v>
       </c>
       <c r="F72">
-        <v>0.04770259613720551</v>
+        <v>0.004105763755662068</v>
       </c>
       <c r="G72">
-        <v>0.06559610404903816</v>
+        <v>-0.06717157414805598</v>
       </c>
       <c r="H72">
-        <v>-0.04615569628122326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.03954835533094878</v>
+      </c>
+      <c r="I72">
+        <v>-0.03496145178116995</v>
+      </c>
+      <c r="J72">
+        <v>0.1276867855592524</v>
+      </c>
+      <c r="K72">
+        <v>0.09475720165502889</v>
+      </c>
+      <c r="L72">
+        <v>0.01205314675331602</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2893538168248355</v>
+        <v>0.2384184413699051</v>
       </c>
       <c r="C73">
-        <v>-0.1805316012422973</v>
+        <v>-0.1299143048466964</v>
       </c>
       <c r="D73">
-        <v>0.08119886744340109</v>
+        <v>0.1583597319009288</v>
       </c>
       <c r="E73">
-        <v>0.07997546793986006</v>
+        <v>0.1079106276755155</v>
       </c>
       <c r="F73">
-        <v>-0.2675487337912562</v>
+        <v>-0.4420630265664888</v>
       </c>
       <c r="G73">
-        <v>-0.1603355684017816</v>
+        <v>-0.03254371640984065</v>
       </c>
       <c r="H73">
-        <v>0.06372462887774541</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.257299894602482</v>
+      </c>
+      <c r="I73">
+        <v>0.1666744818333689</v>
+      </c>
+      <c r="J73">
+        <v>-0.2502767091194124</v>
+      </c>
+      <c r="K73">
+        <v>0.2102021613214838</v>
+      </c>
+      <c r="L73">
+        <v>0.09065168706309477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.09577699200747614</v>
+        <v>0.1036028723199442</v>
       </c>
       <c r="C74">
-        <v>-0.03626957921174317</v>
+        <v>-0.06921850333614138</v>
       </c>
       <c r="D74">
-        <v>0.007345337356149212</v>
+        <v>0.006712531576503345</v>
       </c>
       <c r="E74">
-        <v>0.03969534569989186</v>
+        <v>0.01276489054230875</v>
       </c>
       <c r="F74">
-        <v>0.1007059359828785</v>
+        <v>-0.03606512824872229</v>
       </c>
       <c r="G74">
-        <v>-0.04698101789953412</v>
+        <v>-0.1257064032306456</v>
       </c>
       <c r="H74">
-        <v>-0.06525480107085503</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.08671016424784479</v>
+      </c>
+      <c r="I74">
+        <v>-0.05915534869703064</v>
+      </c>
+      <c r="J74">
+        <v>0.01924273258829619</v>
+      </c>
+      <c r="K74">
+        <v>0.000849536697387805</v>
+      </c>
+      <c r="L74">
+        <v>0.0059897722569514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.09973628837488598</v>
+        <v>0.09982014232662166</v>
       </c>
       <c r="C75">
-        <v>-0.01908591344162835</v>
+        <v>-0.05234033446859232</v>
       </c>
       <c r="D75">
-        <v>-0.001190207228994192</v>
+        <v>0.004732659960280203</v>
       </c>
       <c r="E75">
-        <v>0.04473068300899786</v>
+        <v>0.008283821416385326</v>
       </c>
       <c r="F75">
-        <v>0.1232042625515998</v>
+        <v>-0.03268092652855858</v>
       </c>
       <c r="G75">
-        <v>-0.04238289590826706</v>
+        <v>-0.04612174499232252</v>
       </c>
       <c r="H75">
-        <v>-0.02984343088127386</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1200923352847742</v>
+      </c>
+      <c r="I75">
+        <v>-0.07474340920548139</v>
+      </c>
+      <c r="J75">
+        <v>0.03837370998205427</v>
+      </c>
+      <c r="K75">
+        <v>0.009130134302955763</v>
+      </c>
+      <c r="L75">
+        <v>-0.004590359865475584</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1369136967808621</v>
+        <v>0.07305176299730605</v>
       </c>
       <c r="C76">
-        <v>-0.03302213428836843</v>
+        <v>-0.04640441760320647</v>
       </c>
       <c r="D76">
-        <v>0.02134186612309127</v>
+        <v>0.03261097303875344</v>
       </c>
       <c r="E76">
-        <v>0.04557330283127141</v>
+        <v>-0.00128833367326207</v>
       </c>
       <c r="F76">
-        <v>0.2249020261814504</v>
+        <v>-0.06728797365316949</v>
       </c>
       <c r="G76">
-        <v>-0.06559432522657392</v>
+        <v>-0.06838187748476116</v>
       </c>
       <c r="H76">
-        <v>-0.04826161563844556</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1671641487571363</v>
+      </c>
+      <c r="I76">
+        <v>-0.08378525671613099</v>
+      </c>
+      <c r="J76">
+        <v>-0.01446886597576251</v>
+      </c>
+      <c r="K76">
+        <v>-0.04248590811837646</v>
+      </c>
+      <c r="L76">
+        <v>0.004928796461646282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.07739996048332132</v>
+        <v>0.07082431337008406</v>
       </c>
       <c r="C77">
-        <v>-0.03092310171046811</v>
+        <v>-0.03334375450234645</v>
       </c>
       <c r="D77">
-        <v>0.02799700708805182</v>
+        <v>0.03894032999264797</v>
       </c>
       <c r="E77">
-        <v>-0.1081547356109537</v>
+        <v>0.003179492936149563</v>
       </c>
       <c r="F77">
-        <v>-0.2316804124414778</v>
+        <v>0.270756291457076</v>
       </c>
       <c r="G77">
-        <v>0.6073870624491441</v>
+        <v>0.06525907417742748</v>
       </c>
       <c r="H77">
-        <v>0.2064548758403626</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.07802628022309818</v>
+      </c>
+      <c r="I77">
+        <v>0.2240145736198466</v>
+      </c>
+      <c r="J77">
+        <v>0.1168914165600227</v>
+      </c>
+      <c r="K77">
+        <v>0.474655989126725</v>
+      </c>
+      <c r="L77">
+        <v>-0.5063405318157526</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.1860223850378863</v>
+        <v>0.1530362162419241</v>
       </c>
       <c r="C78">
-        <v>-0.08325163178753174</v>
+        <v>-0.1156885529028658</v>
       </c>
       <c r="D78">
-        <v>0.04402068420240679</v>
+        <v>-0.0358697247556008</v>
       </c>
       <c r="E78">
-        <v>-0.2122708449731589</v>
+        <v>-0.1909776912498181</v>
       </c>
       <c r="F78">
-        <v>0.0313143715860286</v>
+        <v>0.09503430311262284</v>
       </c>
       <c r="G78">
-        <v>0.09001744471597681</v>
+        <v>0.7415400238503702</v>
       </c>
       <c r="H78">
-        <v>0.0923942363196818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.4121603146945073</v>
+      </c>
+      <c r="I78">
+        <v>-0.08360862444288435</v>
+      </c>
+      <c r="J78">
+        <v>-0.2243774448552116</v>
+      </c>
+      <c r="K78">
+        <v>0.1772049156346641</v>
+      </c>
+      <c r="L78">
+        <v>0.1354714424245319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1383655059988356</v>
+        <v>0.135347229295724</v>
       </c>
       <c r="C79">
-        <v>-0.02420879870838628</v>
+        <v>-0.06844598413867645</v>
       </c>
       <c r="D79">
-        <v>0.001519731166953201</v>
+        <v>0.02121333676864045</v>
       </c>
       <c r="E79">
-        <v>0.06559472415202759</v>
+        <v>-0.001810219824404322</v>
       </c>
       <c r="F79">
-        <v>0.1625701858393579</v>
+        <v>0.002409151855095982</v>
       </c>
       <c r="G79">
-        <v>-0.004178091578735767</v>
+        <v>-0.1130567749132545</v>
       </c>
       <c r="H79">
-        <v>-0.06590413853605222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.1253838932601845</v>
+      </c>
+      <c r="I79">
+        <v>-0.1087190615099517</v>
+      </c>
+      <c r="J79">
+        <v>0.06887927340752835</v>
+      </c>
+      <c r="K79">
+        <v>0.009529651923335616</v>
+      </c>
+      <c r="L79">
+        <v>0.000667875361294692</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.03872706990231461</v>
+        <v>0.0606662830666477</v>
       </c>
       <c r="C80">
-        <v>-0.02011678895373009</v>
+        <v>-0.03304467623054089</v>
       </c>
       <c r="D80">
-        <v>0.01414006570390706</v>
+        <v>0.02615254795486286</v>
       </c>
       <c r="E80">
-        <v>0.03707341169157183</v>
+        <v>0.0648561226307445</v>
       </c>
       <c r="F80">
-        <v>-0.02237929123762411</v>
+        <v>0.04616777075916436</v>
       </c>
       <c r="G80">
-        <v>-0.002207620252485113</v>
+        <v>0.02617826272445035</v>
       </c>
       <c r="H80">
-        <v>-0.04215086833997633</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.04379139452587253</v>
+      </c>
+      <c r="I80">
+        <v>0.08129021614151209</v>
+      </c>
+      <c r="J80">
+        <v>0.006812823811110558</v>
+      </c>
+      <c r="K80">
+        <v>-0.1732833743043885</v>
+      </c>
+      <c r="L80">
+        <v>0.05031039349284251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1053995610542391</v>
+        <v>0.1227789619440231</v>
       </c>
       <c r="C81">
-        <v>-0.02098956033375585</v>
+        <v>-0.05999326191344524</v>
       </c>
       <c r="D81">
-        <v>0.012426012872401</v>
+        <v>0.02655394833992488</v>
       </c>
       <c r="E81">
-        <v>0.07426276424259504</v>
+        <v>-0.003075468125055828</v>
       </c>
       <c r="F81">
-        <v>0.1257701477658655</v>
+        <v>0.006929477946457878</v>
       </c>
       <c r="G81">
-        <v>-0.01071795287244257</v>
+        <v>-0.07787809547222516</v>
       </c>
       <c r="H81">
-        <v>0.02466702272920108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.08344022340334566</v>
+      </c>
+      <c r="I81">
+        <v>-0.1100865781777655</v>
+      </c>
+      <c r="J81">
+        <v>0.03422953030257729</v>
+      </c>
+      <c r="K81">
+        <v>0.002915111872027096</v>
+      </c>
+      <c r="L81">
+        <v>-0.00617648154289029</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1163440939291556</v>
+        <v>0.1288252054261397</v>
       </c>
       <c r="C82">
-        <v>-0.02163092807544453</v>
+        <v>-0.04743922913581925</v>
       </c>
       <c r="D82">
-        <v>0.07011820646554191</v>
+        <v>0.04121638844237083</v>
       </c>
       <c r="E82">
-        <v>0.09746853974065024</v>
+        <v>0.02050350493366098</v>
       </c>
       <c r="F82">
-        <v>0.2239265783749466</v>
+        <v>-0.03108518441748134</v>
       </c>
       <c r="G82">
-        <v>-0.005038438586405801</v>
+        <v>-0.1618521459279516</v>
       </c>
       <c r="H82">
-        <v>-0.1048297998623722</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1582346617865311</v>
+      </c>
+      <c r="I82">
+        <v>-0.1634245884590708</v>
+      </c>
+      <c r="J82">
+        <v>0.01572088823839742</v>
+      </c>
+      <c r="K82">
+        <v>-0.0667790031013932</v>
+      </c>
+      <c r="L82">
+        <v>-0.06435382357676761</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.08160968159390256</v>
+        <v>0.08585757690237518</v>
       </c>
       <c r="C83">
-        <v>-0.06130675103540643</v>
+        <v>-0.1147852492987923</v>
       </c>
       <c r="D83">
-        <v>0.04607564041466441</v>
+        <v>0.02008103435538739</v>
       </c>
       <c r="E83">
-        <v>-0.0008671401590636959</v>
+        <v>0.01443065437223514</v>
       </c>
       <c r="F83">
-        <v>-0.07400620455259166</v>
+        <v>0.08825632432994381</v>
       </c>
       <c r="G83">
-        <v>0.04419881288488931</v>
+        <v>0.003509770860476764</v>
       </c>
       <c r="H83">
-        <v>-0.05390026282147477</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.05236945954292594</v>
+      </c>
+      <c r="I83">
+        <v>0.1742237952647497</v>
+      </c>
+      <c r="J83">
+        <v>-0.03575350953095834</v>
+      </c>
+      <c r="K83">
+        <v>-0.1297751397791049</v>
+      </c>
+      <c r="L83">
+        <v>-0.1310590695684182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.06252482735624484</v>
+        <v>0.05867896078261285</v>
       </c>
       <c r="C84">
-        <v>-0.04685988502721503</v>
+        <v>0.02958208630437184</v>
       </c>
       <c r="D84">
-        <v>-0.05041543270344789</v>
+        <v>0.01180422029076827</v>
       </c>
       <c r="E84">
-        <v>-0.01564017496855924</v>
+        <v>0.007770439422017073</v>
       </c>
       <c r="F84">
-        <v>0.07240338506552868</v>
+        <v>-0.03634087043384536</v>
       </c>
       <c r="G84">
-        <v>-0.1315900601757107</v>
+        <v>0.1270627570531079</v>
       </c>
       <c r="H84">
-        <v>-0.02313847434777866</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2147540281624203</v>
+      </c>
+      <c r="I84">
+        <v>-0.1997624233335556</v>
+      </c>
+      <c r="J84">
+        <v>-0.1584610885116023</v>
+      </c>
+      <c r="K84">
+        <v>-0.1916056091352906</v>
+      </c>
+      <c r="L84">
+        <v>0.1117719103566485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.09928016098528493</v>
+        <v>0.1117121726258531</v>
       </c>
       <c r="C85">
-        <v>-0.0333514806731894</v>
+        <v>-0.04837182769100432</v>
       </c>
       <c r="D85">
-        <v>0.02692716957557041</v>
+        <v>0.0494060291244139</v>
       </c>
       <c r="E85">
-        <v>0.05798715575927246</v>
+        <v>0.0006030079499044919</v>
       </c>
       <c r="F85">
-        <v>0.181468282241731</v>
+        <v>0.002268249526895658</v>
       </c>
       <c r="G85">
-        <v>0.024024168991714</v>
+        <v>-0.1066019879455046</v>
       </c>
       <c r="H85">
-        <v>-0.09083837556961243</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1217481603567796</v>
+      </c>
+      <c r="I85">
+        <v>-0.1124337274252879</v>
+      </c>
+      <c r="J85">
+        <v>0.07106459329837836</v>
+      </c>
+      <c r="K85">
+        <v>0.02923264038456364</v>
+      </c>
+      <c r="L85">
+        <v>-0.004504227198809052</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.05566743668833271</v>
+        <v>0.07839661416902456</v>
       </c>
       <c r="C86">
-        <v>-0.04475056128204726</v>
+        <v>-0.03203647567111506</v>
       </c>
       <c r="D86">
-        <v>0.03638734177316445</v>
+        <v>0.1030252722062481</v>
       </c>
       <c r="E86">
-        <v>-0.03214740765097838</v>
+        <v>-0.03998834175984744</v>
       </c>
       <c r="F86">
-        <v>-0.02762576459675846</v>
+        <v>-0.003034799341050961</v>
       </c>
       <c r="G86">
-        <v>0.03496960976141186</v>
+        <v>0.2558685181424779</v>
       </c>
       <c r="H86">
-        <v>-0.01851050222005029</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.4576598300699882</v>
+      </c>
+      <c r="I86">
+        <v>-0.5808956281618849</v>
+      </c>
+      <c r="J86">
+        <v>0.337405268184983</v>
+      </c>
+      <c r="K86">
+        <v>-0.04190310785977498</v>
+      </c>
+      <c r="L86">
+        <v>-0.03442849371495826</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.09224725198247188</v>
+        <v>0.1116454793717563</v>
       </c>
       <c r="C87">
-        <v>-0.04765148988178199</v>
+        <v>-0.1002247508851579</v>
       </c>
       <c r="D87">
-        <v>0.01154233341927537</v>
+        <v>0.03243654139520528</v>
       </c>
       <c r="E87">
-        <v>-0.06039109328171614</v>
+        <v>-0.03068805101312553</v>
       </c>
       <c r="F87">
-        <v>-0.01700452704016101</v>
+        <v>0.1293491632077579</v>
       </c>
       <c r="G87">
-        <v>0.1351129748927783</v>
+        <v>0.02710829621568761</v>
       </c>
       <c r="H87">
-        <v>-0.03059900241022901</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.08475370359738435</v>
+      </c>
+      <c r="I87">
+        <v>0.07228653310324497</v>
+      </c>
+      <c r="J87">
+        <v>0.132868450898909</v>
+      </c>
+      <c r="K87">
+        <v>0.0344765892322777</v>
+      </c>
+      <c r="L87">
+        <v>-0.2778644738870109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.06163980904163157</v>
+        <v>0.05569851928264449</v>
       </c>
       <c r="C88">
-        <v>-0.03524010968546761</v>
+        <v>-0.05033525784714125</v>
       </c>
       <c r="D88">
-        <v>0.01979261279458013</v>
+        <v>0.03006473412075228</v>
       </c>
       <c r="E88">
-        <v>-0.005049494156333077</v>
+        <v>0.02632878182156884</v>
       </c>
       <c r="F88">
-        <v>-0.01407036230820929</v>
+        <v>0.03787190875448696</v>
       </c>
       <c r="G88">
-        <v>0.04213607856864061</v>
+        <v>-0.0365809037317166</v>
       </c>
       <c r="H88">
-        <v>-0.01064784490165287</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.009718995653687071</v>
+      </c>
+      <c r="I88">
+        <v>0.02324596675942657</v>
+      </c>
+      <c r="J88">
+        <v>-0.04185682471959591</v>
+      </c>
+      <c r="K88">
+        <v>-0.04785895720129769</v>
+      </c>
+      <c r="L88">
+        <v>0.04475170907092584</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1257390499918145</v>
+        <v>0.1955574377772087</v>
       </c>
       <c r="C89">
-        <v>0.352436955940348</v>
+        <v>0.3679806632554077</v>
       </c>
       <c r="D89">
-        <v>0.1051940927612216</v>
+        <v>0.02738124936402882</v>
       </c>
       <c r="E89">
-        <v>-0.08093932240540908</v>
+        <v>-0.05937586107809686</v>
       </c>
       <c r="F89">
-        <v>-0.06876406948117549</v>
+        <v>0.0310635673508316</v>
       </c>
       <c r="G89">
-        <v>0.01578233592425517</v>
+        <v>0.04130781947971903</v>
       </c>
       <c r="H89">
-        <v>-0.03575865385551915</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01864917850188316</v>
+      </c>
+      <c r="I89">
+        <v>0.03902806315952526</v>
+      </c>
+      <c r="J89">
+        <v>-0.05165686989525305</v>
+      </c>
+      <c r="K89">
+        <v>-0.0460460850911925</v>
+      </c>
+      <c r="L89">
+        <v>-0.01763964290928634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.09623116830693802</v>
+        <v>0.1488356322127565</v>
       </c>
       <c r="C90">
-        <v>0.2777833895818031</v>
+        <v>0.2691239147009907</v>
       </c>
       <c r="D90">
-        <v>0.04647934962528867</v>
+        <v>0.009673786506141405</v>
       </c>
       <c r="E90">
-        <v>-0.05660761973460847</v>
+        <v>-0.003569496170826695</v>
       </c>
       <c r="F90">
-        <v>-0.05133855860995855</v>
+        <v>0.04281896401148263</v>
       </c>
       <c r="G90">
-        <v>0.08802764271828312</v>
+        <v>-0.01940511216903994</v>
       </c>
       <c r="H90">
-        <v>-0.002837916712117406</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06027195999137401</v>
+      </c>
+      <c r="I90">
+        <v>0.0217324710518699</v>
+      </c>
+      <c r="J90">
+        <v>-0.03505485102018176</v>
+      </c>
+      <c r="K90">
+        <v>0.03433023044185483</v>
+      </c>
+      <c r="L90">
+        <v>0.01830172888918681</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.08504495070560938</v>
+        <v>0.0801296363156381</v>
       </c>
       <c r="C91">
-        <v>-0.02318597145801674</v>
+        <v>-0.04862578117475748</v>
       </c>
       <c r="D91">
-        <v>0.01246889737128672</v>
+        <v>0.0280140034711445</v>
       </c>
       <c r="E91">
-        <v>0.01358170983084968</v>
+        <v>-0.00572508039389289</v>
       </c>
       <c r="F91">
-        <v>0.08672805764665685</v>
+        <v>-0.02082220612422008</v>
       </c>
       <c r="G91">
-        <v>-0.06156264178925509</v>
+        <v>-0.06097296546873097</v>
       </c>
       <c r="H91">
-        <v>-0.0172698680343615</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.07552162614912918</v>
+      </c>
+      <c r="I91">
+        <v>-0.06251087687249994</v>
+      </c>
+      <c r="J91">
+        <v>0.01169375472143612</v>
+      </c>
+      <c r="K91">
+        <v>-0.001642647082549785</v>
+      </c>
+      <c r="L91">
+        <v>0.01193551253131527</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.1034773719739617</v>
+        <v>0.1650619685952808</v>
       </c>
       <c r="C92">
-        <v>0.3264318360237683</v>
+        <v>0.3195749899510131</v>
       </c>
       <c r="D92">
-        <v>0.07913364273196195</v>
+        <v>0.004401279777844837</v>
       </c>
       <c r="E92">
-        <v>-0.05064189035374163</v>
+        <v>-0.04240413804215967</v>
       </c>
       <c r="F92">
-        <v>-0.00707755033610449</v>
+        <v>0.05117419635457598</v>
       </c>
       <c r="G92">
-        <v>-0.09632816154621079</v>
+        <v>0.0009789292479065667</v>
       </c>
       <c r="H92">
-        <v>-0.01426413988514753</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.03541259889357935</v>
+      </c>
+      <c r="I92">
+        <v>-0.001458817977731914</v>
+      </c>
+      <c r="J92">
+        <v>-0.04868324189698583</v>
+      </c>
+      <c r="K92">
+        <v>-0.03938064958489086</v>
+      </c>
+      <c r="L92">
+        <v>0.032087168662531</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.1074518332837884</v>
+        <v>0.1545792328954996</v>
       </c>
       <c r="C93">
-        <v>0.2761674875949034</v>
+        <v>0.2968742549484706</v>
       </c>
       <c r="D93">
-        <v>0.05030334968117239</v>
+        <v>0.01966168797584014</v>
       </c>
       <c r="E93">
-        <v>-0.02680146901605919</v>
+        <v>0.0223044654350704</v>
       </c>
       <c r="F93">
-        <v>-0.02813921617470278</v>
+        <v>0.01893412478032542</v>
       </c>
       <c r="G93">
-        <v>0.01214914957182827</v>
+        <v>-0.01635780946993711</v>
       </c>
       <c r="H93">
-        <v>0.02652264161769189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.0485263672785333</v>
+      </c>
+      <c r="I93">
+        <v>-0.001181855615820948</v>
+      </c>
+      <c r="J93">
+        <v>0.02572092685636123</v>
+      </c>
+      <c r="K93">
+        <v>-0.02318677236965707</v>
+      </c>
+      <c r="L93">
+        <v>0.003816586544718504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.09792697582401765</v>
+        <v>0.1173408815274979</v>
       </c>
       <c r="C94">
-        <v>-0.04834594384178367</v>
+        <v>-0.06492758426714493</v>
       </c>
       <c r="D94">
-        <v>0.006091357906060842</v>
+        <v>0.02267911290481945</v>
       </c>
       <c r="E94">
-        <v>0.01981120620216891</v>
+        <v>-0.0159918136079576</v>
       </c>
       <c r="F94">
-        <v>0.1528928152466284</v>
+        <v>-0.03449712132309892</v>
       </c>
       <c r="G94">
-        <v>-0.05732309973999137</v>
+        <v>-0.09256759623698826</v>
       </c>
       <c r="H94">
-        <v>-0.07682720002397944</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.1038665233555335</v>
+      </c>
+      <c r="I94">
+        <v>-0.08096918060407446</v>
+      </c>
+      <c r="J94">
+        <v>-0.001715795978001358</v>
+      </c>
+      <c r="K94">
+        <v>0.0007767160283697794</v>
+      </c>
+      <c r="L94">
+        <v>0.05683330042096006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1238581627409355</v>
+        <v>0.1194305165137995</v>
       </c>
       <c r="C95">
-        <v>-0.07474396181500458</v>
+        <v>-0.07166754092030568</v>
       </c>
       <c r="D95">
-        <v>0.05699651637918757</v>
+        <v>0.04227478711727772</v>
       </c>
       <c r="E95">
-        <v>-0.05102238675950158</v>
+        <v>-0.03084162929493368</v>
       </c>
       <c r="F95">
-        <v>-0.06456976310771856</v>
+        <v>0.06601079355649785</v>
       </c>
       <c r="G95">
-        <v>0.04761194378604846</v>
+        <v>0.1477008316772134</v>
       </c>
       <c r="H95">
-        <v>-0.1179250199084112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.2064525666265654</v>
+      </c>
+      <c r="I95">
+        <v>0.01118601816928298</v>
+      </c>
+      <c r="J95">
+        <v>0.08696737064368572</v>
+      </c>
+      <c r="K95">
+        <v>-0.1003726109967503</v>
+      </c>
+      <c r="L95">
+        <v>-0.02957751830519394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.002537966059994261</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.005785345789302797</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.002257268155316885</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001642356138130525</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.003427457633908958</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.01542530331521834</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.01461030623766887</v>
+      </c>
+      <c r="I96">
+        <v>0.008860007832029714</v>
+      </c>
+      <c r="J96">
+        <v>0.0008318325971781123</v>
+      </c>
+      <c r="K96">
+        <v>0.01071162208093278</v>
+      </c>
+      <c r="L96">
+        <v>-0.004408695809069919</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2225896801859998</v>
+        <v>0.1920646996993555</v>
       </c>
       <c r="C97">
-        <v>0.1335271498660252</v>
+        <v>-0.05689999226353285</v>
       </c>
       <c r="D97">
-        <v>-0.9034206142469672</v>
+        <v>-0.9342593382762026</v>
       </c>
       <c r="E97">
-        <v>0.03125359803666762</v>
+        <v>0.1602558414011432</v>
       </c>
       <c r="F97">
-        <v>-0.09837305606574812</v>
+        <v>-0.0718253003595531</v>
       </c>
       <c r="G97">
-        <v>-0.003944453298068223</v>
+        <v>0.01518490334683509</v>
       </c>
       <c r="H97">
-        <v>0.03033859826111612</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.09659217020618661</v>
+      </c>
+      <c r="I97">
+        <v>-0.0527432512312316</v>
+      </c>
+      <c r="J97">
+        <v>-0.0007249948327895428</v>
+      </c>
+      <c r="K97">
+        <v>0.01303804917145339</v>
+      </c>
+      <c r="L97">
+        <v>-0.05397528900819221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.3019873159992492</v>
+        <v>0.252278452348034</v>
       </c>
       <c r="C98">
-        <v>-0.09896769578227041</v>
+        <v>-0.09817578588809772</v>
       </c>
       <c r="D98">
-        <v>0.09744365120326859</v>
+        <v>0.03998585240648378</v>
       </c>
       <c r="E98">
-        <v>0.1881563835898323</v>
+        <v>-0.01592758806373312</v>
       </c>
       <c r="F98">
-        <v>-0.2709904031127626</v>
+        <v>-0.3955080629218557</v>
       </c>
       <c r="G98">
-        <v>-0.332976153537827</v>
+        <v>0.1841799470385886</v>
       </c>
       <c r="H98">
-        <v>0.3568591100800899</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.04200138144280651</v>
+      </c>
+      <c r="I98">
+        <v>0.2298304649337608</v>
+      </c>
+      <c r="J98">
+        <v>-0.07533482856230667</v>
+      </c>
+      <c r="K98">
+        <v>-0.4063728122915292</v>
+      </c>
+      <c r="L98">
+        <v>-0.3643192018927544</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.07470577154366394</v>
+        <v>0.06476720132331405</v>
       </c>
       <c r="C99">
-        <v>-0.04969563984668793</v>
+        <v>-0.04103146659803306</v>
       </c>
       <c r="D99">
-        <v>0.01933622060537397</v>
+        <v>0.02695423986455665</v>
       </c>
       <c r="E99">
-        <v>0.001834618643695818</v>
+        <v>-0.00998596242606372</v>
       </c>
       <c r="F99">
-        <v>0.02770225522246053</v>
+        <v>-0.005272843496916217</v>
       </c>
       <c r="G99">
-        <v>0.04491217126703922</v>
+        <v>-0.006875815933284802</v>
       </c>
       <c r="H99">
-        <v>-0.00310760148711735</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02905364907411963</v>
+      </c>
+      <c r="I99">
+        <v>-0.0009638266071443816</v>
+      </c>
+      <c r="J99">
+        <v>-0.04180884491292552</v>
+      </c>
+      <c r="K99">
+        <v>0.01957240807984041</v>
+      </c>
+      <c r="L99">
+        <v>-0.00638303445743163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.001638758431580542</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.006624375201573253</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.06579650808423902</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.01592555027627868</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03772355193564723</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.006571290856909484</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.008253099838280152</v>
+      </c>
+      <c r="I100">
+        <v>0.05031235650700719</v>
+      </c>
+      <c r="J100">
+        <v>0.0003213545705893721</v>
+      </c>
+      <c r="K100">
+        <v>-0.06481544766683407</v>
+      </c>
+      <c r="L100">
+        <v>-0.01907491331894527</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05346166392764748</v>
+        <v>0.0372406785894757</v>
       </c>
       <c r="C101">
-        <v>-0.005328711159272835</v>
+        <v>-0.02145880442541993</v>
       </c>
       <c r="D101">
-        <v>0.007910379116428523</v>
+        <v>0.0203104161334515</v>
       </c>
       <c r="E101">
-        <v>-0.03437348065048647</v>
+        <v>0.004009133072629555</v>
       </c>
       <c r="F101">
-        <v>0.02274614506050315</v>
+        <v>0.06396966728870362</v>
       </c>
       <c r="G101">
-        <v>0.002579177384975139</v>
+        <v>-0.01791746563975013</v>
       </c>
       <c r="H101">
-        <v>-0.01449085999219197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.0125740801217415</v>
+      </c>
+      <c r="I101">
+        <v>0.008384170595052299</v>
+      </c>
+      <c r="J101">
+        <v>0.02151585083274009</v>
+      </c>
+      <c r="K101">
+        <v>-0.1048284047726456</v>
+      </c>
+      <c r="L101">
+        <v>0.01037563171508756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4579,22 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4617,22 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4653,18 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
